--- a/camp_participants.xlsx
+++ b/camp_participants.xlsx
@@ -378,7 +378,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD3"/>
@@ -449,6 +449,23 @@
         <v>1</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="n" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="B4" t="n" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="C4" t="n" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="D4" t="n" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="E4" t="b" s="1">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/camp_participants.xlsx
+++ b/camp_participants.xlsx
@@ -378,7 +378,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD3"/>
@@ -434,36 +434,87 @@
     </row>
     <row r="3">
       <c r="A3" t="n" s="1">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="B3" t="n" s="1">
         <v>1.0</v>
       </c>
       <c r="C3" t="n" s="1">
-        <v>9.0</v>
+        <v>11.0</v>
       </c>
       <c r="D3" t="n" s="1">
         <v>1.0</v>
       </c>
       <c r="E3" t="b" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="B5" t="n" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="C5" t="n" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="D5" t="n" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E5" t="b" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="B4" t="n" s="1">
+    <row r="7">
+      <c r="A7" t="n" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="B7" t="n" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="C7" t="n" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="D7" t="n" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E7" t="b" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="B9" t="n" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C9" t="n" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="D9" t="n" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E9" t="b" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="B11" t="n" s="1">
         <v>2.0</v>
       </c>
-      <c r="C4" t="n" s="1">
+      <c r="C11" t="n" s="1">
         <v>7.0</v>
       </c>
-      <c r="D4" t="n" s="1">
+      <c r="D11" t="n" s="1">
         <v>2.0</v>
       </c>
-      <c r="E4" t="b" s="1">
-        <v>1</v>
+      <c r="E11" t="b" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/camp_participants.xlsx
+++ b/camp_participants.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ac8001eaf239fe7a/Documents/NetBeansProjects/CAMs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ac8001eaf239fe7a/Documents/NetBeansProjects/SC2002-CAMS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="221" documentId="13_ncr:1_{E5A21032-4AA7-4669-B59C-E86C3DA62B12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AE5038AA-79FA-4F2B-820C-C9F8BE96DE47}"/>
+  <xr:revisionPtr revIDLastSave="222" documentId="13_ncr:1_{E5A21032-4AA7-4669-B59C-E86C3DA62B12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A17CAC33-CA64-4E74-9E5F-EF3DCD4C01E1}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -381,7 +381,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -417,36 +417,36 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
       </c>
       <c r="E2" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="B3" t="n" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="C3" t="n" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="D3" t="n" s="1">
         <v>2.0</v>
       </c>
-      <c r="B3" t="n" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C3" t="n" s="1">
-        <v>9.0</v>
-      </c>
-      <c r="D3" t="n" s="1">
-        <v>1.0</v>
-      </c>
       <c r="E3" t="b" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/camp_participants.xlsx
+++ b/camp_participants.xlsx
@@ -378,7 +378,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD3"/>
@@ -432,23 +432,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="B3" t="n" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C3" t="n" s="1">
-        <v>11.0</v>
-      </c>
-      <c r="D3" t="n" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="E3" t="b" s="1">
-        <v>0</v>
-      </c>
-    </row>
     <row r="5">
       <c r="A5" t="n" s="1">
         <v>5.0</v>
@@ -466,23 +449,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="B7" t="n" s="1">
-        <v>8.0</v>
-      </c>
-      <c r="C7" t="n" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="D7" t="n" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="E7" t="b" s="1">
-        <v>0</v>
-      </c>
-    </row>
     <row r="9">
       <c r="A9" t="n" s="1">
         <v>8.0</v>
@@ -500,20 +466,71 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="n" s="1">
+    <row r="12">
+      <c r="A12" t="n" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="B12" t="n" s="1">
         <v>10.0</v>
       </c>
-      <c r="B11" t="n" s="1">
+      <c r="C12" t="n" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="D12" t="n" s="1">
         <v>2.0</v>
       </c>
-      <c r="C11" t="n" s="1">
+      <c r="E12" t="b" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="B14" t="n" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="C14" t="n" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="D14" t="n" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E14" t="b" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="B15" t="n" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="C15" t="n" s="1">
         <v>7.0</v>
       </c>
-      <c r="D11" t="n" s="1">
+      <c r="D15" t="n" s="1">
         <v>2.0</v>
       </c>
-      <c r="E11" t="b" s="1">
+      <c r="E15" t="b" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="B16" t="n" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="C16" t="n" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="D16" t="n" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E16" t="b" s="1">
         <v>0</v>
       </c>
     </row>

--- a/camp_participants.xlsx
+++ b/camp_participants.xlsx
@@ -378,7 +378,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD3"/>
@@ -449,23 +449,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="n" s="1">
-        <v>8.0</v>
-      </c>
-      <c r="B9" t="n" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C9" t="n" s="1">
-        <v>14.0</v>
-      </c>
-      <c r="D9" t="n" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="E9" t="b" s="1">
-        <v>1</v>
-      </c>
-    </row>
     <row r="12">
       <c r="A12" t="n" s="1">
         <v>11.0</v>
@@ -531,6 +514,23 @@
         <v>1.0</v>
       </c>
       <c r="E16" t="b" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="B17" t="n" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="C17" t="n" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="D17" t="n" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E17" t="b" s="1">
         <v>0</v>
       </c>
     </row>

--- a/camp_participants.xlsx
+++ b/camp_participants.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ac8001eaf239fe7a/Documents/NetBeansProjects/CAMs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ac8001eaf239fe7a/Documents/NetBeansProjects/SC2002-CAMSV2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="221" documentId="13_ncr:1_{E5A21032-4AA7-4669-B59C-E86C3DA62B12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AE5038AA-79FA-4F2B-820C-C9F8BE96DE47}"/>
+  <xr:revisionPtr revIDLastSave="222" documentId="13_ncr:1_{E5A21032-4AA7-4669-B59C-E86C3DA62B12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{738E4E07-3EAE-4C81-82A5-A5D601EC4F6C}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -378,10 +378,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -432,105 +432,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="B5" t="n" s="1">
-        <v>8.0</v>
-      </c>
-      <c r="C5" t="n" s="1">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="B4" t="n" s="1">
         <v>11.0</v>
       </c>
-      <c r="D5" t="n" s="1">
+      <c r="C4" t="n" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="D4" t="n" s="1">
         <v>1.0</v>
       </c>
-      <c r="E5" t="b" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n" s="1">
-        <v>11.0</v>
-      </c>
-      <c r="B12" t="n" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="C12" t="n" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="D12" t="n" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="E12" t="b" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n" s="1">
-        <v>13.0</v>
-      </c>
-      <c r="B14" t="n" s="1">
-        <v>12.0</v>
-      </c>
-      <c r="C14" t="n" s="1">
-        <v>14.0</v>
-      </c>
-      <c r="D14" t="n" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="E14" t="b" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n" s="1">
-        <v>14.0</v>
-      </c>
-      <c r="B15" t="n" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="C15" t="n" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="D15" t="n" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="E15" t="b" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n" s="1">
-        <v>15.0</v>
-      </c>
-      <c r="B16" t="n" s="1">
-        <v>11.0</v>
-      </c>
-      <c r="C16" t="n" s="1">
-        <v>14.0</v>
-      </c>
-      <c r="D16" t="n" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="E16" t="b" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n" s="1">
-        <v>16.0</v>
-      </c>
-      <c r="B17" t="n" s="1">
-        <v>11.0</v>
-      </c>
-      <c r="C17" t="n" s="1">
-        <v>9.0</v>
-      </c>
-      <c r="D17" t="n" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="E17" t="b" s="1">
+      <c r="E4" t="b" s="1">
         <v>0</v>
       </c>
     </row>

--- a/camp_participants.xlsx
+++ b/camp_participants.xlsx
@@ -378,7 +378,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
@@ -449,23 +449,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n" s="1">
-        <v>12.0</v>
-      </c>
-      <c r="B4" t="n" s="1">
-        <v>11.0</v>
-      </c>
-      <c r="C4" t="n" s="1">
-        <v>9.0</v>
-      </c>
-      <c r="D4" t="n" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="E4" t="b" s="1">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/camp_participants.xlsx
+++ b/camp_participants.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ac8001eaf239fe7a/Documents/NetBeansProjects/SC2002-CAMSV2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="222" documentId="13_ncr:1_{E5A21032-4AA7-4669-B59C-E86C3DA62B12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{738E4E07-3EAE-4C81-82A5-A5D601EC4F6C}"/>
+  <xr:revisionPtr revIDLastSave="223" documentId="13_ncr:1_{E5A21032-4AA7-4669-B59C-E86C3DA62B12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{04177C6C-02DF-46A0-93FF-4B6DC67E99F0}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -381,7 +381,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="A5" sqref="A4:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -434,19 +434,19 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C3" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/camp_participants.xlsx
+++ b/camp_participants.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ac8001eaf239fe7a/Documents/NetBeansProjects/SC2002-CAMSV2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="223" documentId="13_ncr:1_{E5A21032-4AA7-4669-B59C-E86C3DA62B12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{04177C6C-02DF-46A0-93FF-4B6DC67E99F0}"/>
+  <xr:revisionPtr revIDLastSave="224" documentId="13_ncr:1_{E5A21032-4AA7-4669-B59C-E86C3DA62B12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0CB081D9-5E51-44B2-9CD4-9B7E0CDFF7DE}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -381,7 +381,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A5" sqref="A4:XFD5"/>
+      <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -415,38 +415,38 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
+    <row r="2">
+      <c r="A2" t="n" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B2" t="n" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="C2" t="n" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="D2" t="n" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="E2" t="b" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="B3" t="n" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="C3" t="n" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="D3" t="n" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="E3" t="b" s="1">
         <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
-        <v>12</v>
-      </c>
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1">
-        <v>9</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1" t="b">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/camp_participants.xlsx
+++ b/camp_participants.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11116"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ac8001eaf239fe7a/Documents/NetBeansProjects/SC2002-CAMSV2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yajatgulati/dev/CAMs 3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="223" documentId="13_ncr:1_{E5A21032-4AA7-4669-B59C-E86C3DA62B12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{04177C6C-02DF-46A0-93FF-4B6DC67E99F0}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA30EE04-B73B-E846-B791-021D35E02132}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -57,7 +57,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -378,27 +377,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A5" sqref="A4:XFD5"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" style="1" width="8.7265625"/>
-    <col min="2" max="2" customWidth="true" style="1" width="30.54296875"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="11.0"/>
-    <col min="4" max="4" customWidth="true" style="1" width="14.7265625"/>
-    <col min="5" max="5" customWidth="true" style="1" width="30.26953125"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="21.7265625"/>
-    <col min="7" max="9" style="1" width="8.7265625"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="1" width="10.26953125"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="1" width="12.6328125"/>
-    <col min="12" max="16384" style="1" width="8.7265625"/>
+    <col min="1" max="1" width="8.6640625" style="1"/>
+    <col min="2" max="2" width="30.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="30.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="8.6640625" style="1"/>
+    <col min="10" max="10" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -415,7 +414,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -432,20 +431,105 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1">
+        <v>11</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1">
+        <v>14</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1">
+        <v>7</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2</v>
+      </c>
+      <c r="E12" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1">
-        <v>9</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1" t="b">
+      <c r="B13" s="1">
+        <v>11</v>
+      </c>
+      <c r="C13" s="1">
+        <v>14</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>12</v>
+      </c>
+      <c r="C14" s="1">
+        <v>14</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <v>2</v>
+      </c>
+      <c r="C15" s="1">
+        <v>7</v>
+      </c>
+      <c r="D15" s="1">
+        <v>2</v>
+      </c>
+      <c r="E15" s="1" t="b">
         <v>0</v>
       </c>
     </row>
